--- a/WIP/Users/HuyenPT/Tiến độ viết doc.xlsx
+++ b/WIP/Users/HuyenPT/Tiến độ viết doc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="65">
   <si>
     <t>Status</t>
   </si>
@@ -209,6 +209,12 @@
   <si>
     <t>YenNTH
 HaiCM</t>
+  </si>
+  <si>
+    <t>note ro</t>
+  </si>
+  <si>
+    <t>1 tuan sau</t>
   </si>
 </sst>
 </file>
@@ -245,7 +251,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,6 +286,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -360,7 +372,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -371,6 +383,33 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -383,34 +422,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -714,7 +729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:G50"/>
+  <dimension ref="B4:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -723,12 +738,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="57.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="14" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="5"/>
@@ -743,518 +758,524 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15" t="s">
+      <c r="B7" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="14"/>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="14"/>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="19" t="s">
+      <c r="F10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="14"/>
-      <c r="E11" s="15" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="16"/>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="19" t="s">
+      <c r="F12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="19" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D14" s="7"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="19" t="s">
+      <c r="F14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D15" s="7"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D16" s="7"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="7"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="12" t="s">
         <v>52</v>
       </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="8"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="20"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="11" t="s">
+      <c r="F19" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="14"/>
-      <c r="E20" s="15" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="19" t="s">
+      <c r="F20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="14"/>
-      <c r="E21" s="15" t="s">
+      <c r="D21" s="17"/>
+      <c r="E21" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="11" t="s">
+      <c r="F21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" spans="4:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D22" s="16"/>
-      <c r="E22" s="15" t="s">
+      <c r="D22" s="18"/>
+      <c r="E22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="12" t="s">
         <v>52</v>
       </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="4:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="7"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="12" t="s">
         <v>55</v>
       </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="4:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="D25" s="7"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="13" t="s">
         <v>61</v>
       </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D26" s="8"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="12" t="s">
         <v>55</v>
       </c>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="12" t="s">
         <v>55</v>
       </c>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D28" s="14"/>
-      <c r="E28" s="15" t="s">
+      <c r="D28" s="17"/>
+      <c r="E28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="12" t="s">
         <v>55</v>
       </c>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D29" s="16"/>
-      <c r="E29" s="15" t="s">
+      <c r="D29" s="18"/>
+      <c r="E29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="12" t="s">
         <v>52</v>
       </c>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="22" t="s">
         <v>34</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="20"/>
+      <c r="F30" s="12"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D31" s="9"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="20"/>
+      <c r="F31" s="12"/>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D32" s="9"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="20"/>
+      <c r="F32" s="12"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D33" s="9"/>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D33" s="22"/>
       <c r="E33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="20"/>
+      <c r="F33" s="12"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D34" s="9"/>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D34" s="22"/>
       <c r="E34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="20"/>
+      <c r="F34" s="12"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D35" s="12" t="s">
+    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D35" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" s="11" t="s">
+      <c r="F35" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D36" s="14"/>
-      <c r="E36" s="18" t="s">
+    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D36" s="17"/>
+      <c r="E36" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G36" s="19" t="s">
+      <c r="F36" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="4:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="D37" s="14"/>
-      <c r="E37" s="18" t="s">
+      <c r="H36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D37" s="17"/>
+      <c r="E37" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="13" t="s">
         <v>61</v>
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D38" s="14"/>
-      <c r="E38" s="18" t="s">
+    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D38" s="17"/>
+      <c r="E38" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="12" t="s">
         <v>55</v>
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D39" s="14"/>
-      <c r="E39" s="18" t="s">
+    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D39" s="17"/>
+      <c r="E39" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="12" t="s">
         <v>55</v>
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D40" s="14"/>
-      <c r="E40" s="10" t="s">
+    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D40" s="17"/>
+      <c r="E40" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F40" s="20" t="s">
+      <c r="F40" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D41" s="14"/>
-      <c r="E41" s="10" t="s">
+    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D41" s="17"/>
+      <c r="E41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G41" s="19" t="s">
+      <c r="G41" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D42" s="14"/>
-      <c r="E42" s="10" t="s">
+    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D42" s="17"/>
+      <c r="E42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F42" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G42" s="19" t="s">
+      <c r="G42" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="4:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D43" s="14"/>
-      <c r="E43" s="10" t="s">
+    <row r="43" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D43" s="17"/>
+      <c r="E43" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F43" s="21" t="s">
+      <c r="F43" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D44" s="14"/>
-      <c r="E44" s="10" t="s">
+    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D44" s="17"/>
+      <c r="E44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="20"/>
+      <c r="F44" s="12"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D45" s="14"/>
-      <c r="E45" s="18" t="s">
+    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D45" s="17"/>
+      <c r="E45" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F45" s="20" t="s">
+      <c r="F45" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G45" s="19" t="s">
+      <c r="G45" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D46" s="14"/>
-      <c r="E46" s="18" t="s">
+    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D46" s="17"/>
+      <c r="E46" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G46" s="19" t="s">
+      <c r="F46" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D47" s="14"/>
-      <c r="E47" s="18" t="s">
+    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D47" s="17"/>
+      <c r="E47" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F47" s="20" t="s">
+      <c r="F47" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G47" s="19" t="s">
+      <c r="G47" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="4:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="D48" s="14"/>
-      <c r="E48" s="18" t="s">
+    <row r="48" spans="4:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D48" s="17"/>
+      <c r="E48" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="F48" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G48" s="19" t="s">
+      <c r="G48" s="11" t="s">
         <v>49</v>
       </c>
+      <c r="H48" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="49" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D49" s="14"/>
-      <c r="E49" s="18" t="s">
+      <c r="D49" s="17"/>
+      <c r="E49" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F49" s="20"/>
+      <c r="F49" s="12"/>
       <c r="G49" s="2"/>
     </row>
     <row r="50" spans="4:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D50" s="16"/>
-      <c r="E50" s="10" t="s">
+      <c r="D50" s="18"/>
+      <c r="E50" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F50" s="21" t="s">
+      <c r="F50" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="G50" s="7" t="s">
         <v>48</v>
       </c>
     </row>

--- a/WIP/Users/HuyenPT/Tiến độ viết doc.xlsx
+++ b/WIP/Users/HuyenPT/Tiến độ viết doc.xlsx
@@ -401,6 +401,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -422,10 +426,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -731,7 +731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -740,6 +740,7 @@
     <col min="5" max="5" width="57.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" style="14" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -761,7 +762,7 @@
       <c r="B5" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="18" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -778,7 +779,7 @@
       <c r="B6" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="9" t="s">
         <v>59</v>
       </c>
@@ -793,7 +794,7 @@
       <c r="B7" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="9" t="s">
         <v>58</v>
       </c>
@@ -808,7 +809,7 @@
       <c r="B8" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="9" t="s">
         <v>41</v>
       </c>
@@ -820,7 +821,7 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="17"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="9" t="s">
         <v>5</v>
       </c>
@@ -832,7 +833,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="17"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="9" t="s">
         <v>6</v>
       </c>
@@ -844,7 +845,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="17"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="9" t="s">
         <v>7</v>
       </c>
@@ -856,7 +857,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="18"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="9" t="s">
         <v>8</v>
       </c>
@@ -868,7 +869,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -878,7 +879,7 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D14" s="20"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="3" t="s">
         <v>9</v>
       </c>
@@ -890,7 +891,7 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D15" s="20"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
@@ -902,7 +903,7 @@
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D16" s="20"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="4" t="s">
         <v>11</v>
       </c>
@@ -910,7 +911,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="20"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="4" t="s">
         <v>12</v>
       </c>
@@ -920,7 +921,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="21"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
@@ -928,7 +929,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="18" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="9" t="s">
@@ -942,7 +943,7 @@
       </c>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="17"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="9" t="s">
         <v>16</v>
       </c>
@@ -954,7 +955,7 @@
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="17"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="9" t="s">
         <v>17</v>
       </c>
@@ -966,7 +967,7 @@
       </c>
     </row>
     <row r="22" spans="4:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D22" s="18"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="9" t="s">
         <v>18</v>
       </c>
@@ -976,7 +977,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="4:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -990,7 +991,7 @@
       </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="20"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="4" t="s">
         <v>21</v>
       </c>
@@ -1000,7 +1001,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="4:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="D25" s="20"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="4" t="s">
         <v>22</v>
       </c>
@@ -1010,7 +1011,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D26" s="21"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="4" t="s">
         <v>23</v>
       </c>
@@ -1020,7 +1021,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E27" s="9" t="s">
@@ -1032,7 +1033,7 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D28" s="17"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="9" t="s">
         <v>26</v>
       </c>
@@ -1042,7 +1043,7 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D29" s="18"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="9" t="s">
         <v>27</v>
       </c>
@@ -1052,7 +1053,7 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="24" t="s">
         <v>34</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -1062,7 +1063,7 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D31" s="22"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1070,7 +1071,7 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D32" s="22"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="1" t="s">
         <v>31</v>
       </c>
@@ -1078,7 +1079,7 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D33" s="22"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1086,7 +1087,7 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D34" s="22"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="2" t="s">
         <v>33</v>
       </c>
@@ -1094,10 +1095,10 @@
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="17" t="s">
         <v>15</v>
       </c>
       <c r="F35" s="12" t="s">
@@ -1108,8 +1109,8 @@
       </c>
     </row>
     <row r="36" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D36" s="17"/>
-      <c r="E36" s="23" t="s">
+      <c r="D36" s="19"/>
+      <c r="E36" s="16" t="s">
         <v>37</v>
       </c>
       <c r="F36" s="12" t="s">
@@ -1123,7 +1124,7 @@
       </c>
     </row>
     <row r="37" spans="4:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="D37" s="17"/>
+      <c r="D37" s="19"/>
       <c r="E37" s="10" t="s">
         <v>39</v>
       </c>
@@ -1133,7 +1134,7 @@
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D38" s="17"/>
+      <c r="D38" s="19"/>
       <c r="E38" s="10" t="s">
         <v>36</v>
       </c>
@@ -1143,7 +1144,7 @@
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D39" s="17"/>
+      <c r="D39" s="19"/>
       <c r="E39" s="10" t="s">
         <v>38</v>
       </c>
@@ -1153,7 +1154,7 @@
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D40" s="17"/>
+      <c r="D40" s="19"/>
       <c r="E40" s="6" t="s">
         <v>4</v>
       </c>
@@ -1165,7 +1166,7 @@
       </c>
     </row>
     <row r="41" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D41" s="17"/>
+      <c r="D41" s="19"/>
       <c r="E41" s="6" t="s">
         <v>40</v>
       </c>
@@ -1177,7 +1178,7 @@
       </c>
     </row>
     <row r="42" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D42" s="17"/>
+      <c r="D42" s="19"/>
       <c r="E42" s="6" t="s">
         <v>41</v>
       </c>
@@ -1189,7 +1190,7 @@
       </c>
     </row>
     <row r="43" spans="4:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D43" s="17"/>
+      <c r="D43" s="19"/>
       <c r="E43" s="6" t="s">
         <v>42</v>
       </c>
@@ -1201,7 +1202,7 @@
       </c>
     </row>
     <row r="44" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D44" s="17"/>
+      <c r="D44" s="19"/>
       <c r="E44" s="6" t="s">
         <v>43</v>
       </c>
@@ -1209,8 +1210,8 @@
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D45" s="17"/>
-      <c r="E45" s="23" t="s">
+      <c r="D45" s="19"/>
+      <c r="E45" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F45" s="12" t="s">
@@ -1221,7 +1222,7 @@
       </c>
     </row>
     <row r="46" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D46" s="17"/>
+      <c r="D46" s="19"/>
       <c r="E46" s="10" t="s">
         <v>9</v>
       </c>
@@ -1233,7 +1234,7 @@
       </c>
     </row>
     <row r="47" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D47" s="17"/>
+      <c r="D47" s="19"/>
       <c r="E47" s="10" t="s">
         <v>45</v>
       </c>
@@ -1245,8 +1246,8 @@
       </c>
     </row>
     <row r="48" spans="4:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="D48" s="17"/>
-      <c r="E48" s="23" t="s">
+      <c r="D48" s="19"/>
+      <c r="E48" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F48" s="13" t="s">
@@ -1260,15 +1261,15 @@
       </c>
     </row>
     <row r="49" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D49" s="17"/>
-      <c r="E49" s="23" t="s">
+      <c r="D49" s="19"/>
+      <c r="E49" s="16" t="s">
         <v>3</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="2"/>
     </row>
     <row r="50" spans="4:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D50" s="18"/>
+      <c r="D50" s="20"/>
       <c r="E50" s="6" t="s">
         <v>47</v>
       </c>

--- a/WIP/Users/HuyenPT/Tiến độ viết doc.xlsx
+++ b/WIP/Users/HuyenPT/Tiến độ viết doc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="65">
   <si>
     <t>Status</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>Test Result</t>
-  </si>
-  <si>
-    <t>… Test Case</t>
   </si>
   <si>
     <t>Test Report</t>
@@ -211,17 +208,21 @@
 HaiCM</t>
   </si>
   <si>
-    <t>note ro</t>
-  </si>
-  <si>
-    <t>1 tuan sau</t>
+    <t>HuyenPT
+VanTTC</t>
+  </si>
+  <si>
+    <t>Not Start</t>
+  </si>
+  <si>
+    <t>System Test Case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,8 +251,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,6 +298,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -367,12 +380,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -426,8 +440,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,9 +748,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:H50"/>
+  <dimension ref="B4:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -745,14 +764,14 @@
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>0</v>
@@ -760,7 +779,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>2</v>
@@ -769,55 +788,55 @@
         <v>4</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -826,10 +845,10 @@
         <v>5</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -838,10 +857,10 @@
         <v>6</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -850,10 +869,10 @@
         <v>7</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -862,10 +881,10 @@
         <v>8</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -875,8 +894,12 @@
       <c r="E13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D14" s="22"/>
@@ -884,10 +907,10 @@
         <v>9</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
@@ -896,19 +919,23 @@
         <v>10</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D16" s="22"/>
       <c r="E16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="2"/>
+      <c r="F16" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D17" s="22"/>
@@ -916,9 +943,11 @@
         <v>12</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D18" s="23"/>
@@ -926,7 +955,9 @@
         <v>13</v>
       </c>
       <c r="F18" s="12"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="26" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D19" s="18" t="s">
@@ -936,10 +967,10 @@
         <v>15</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
@@ -948,10 +979,10 @@
         <v>16</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
@@ -960,10 +991,10 @@
         <v>17</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="4:7" ht="30" x14ac:dyDescent="0.25">
@@ -972,9 +1003,11 @@
         <v>18</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="23" spans="4:7" ht="45" x14ac:dyDescent="0.25">
       <c r="D23" s="21" t="s">
@@ -984,10 +1017,10 @@
         <v>20</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.25">
@@ -996,9 +1029,11 @@
         <v>21</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="25" spans="4:7" ht="45" x14ac:dyDescent="0.25">
       <c r="D25" s="22"/>
@@ -1006,9 +1041,11 @@
         <v>22</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D26" s="23"/>
@@ -1016,9 +1053,11 @@
         <v>23</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D27" s="18" t="s">
@@ -1028,9 +1067,11 @@
         <v>25</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D28" s="19"/>
@@ -1038,9 +1079,11 @@
         <v>26</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D29" s="20"/>
@@ -1048,9 +1091,11 @@
         <v>27</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D30" s="24" t="s">
@@ -1060,7 +1105,9 @@
         <v>29</v>
       </c>
       <c r="F30" s="12"/>
-      <c r="G30" s="2"/>
+      <c r="G30" s="26" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D31" s="24"/>
@@ -1068,7 +1115,9 @@
         <v>30</v>
       </c>
       <c r="F31" s="12"/>
-      <c r="G31" s="2"/>
+      <c r="G31" s="26" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D32" s="24"/>
@@ -1076,25 +1125,33 @@
         <v>31</v>
       </c>
       <c r="F32" s="12"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D33" s="24"/>
       <c r="E33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F33" s="12"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G33" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D34" s="24"/>
       <c r="E34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F34" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D35" s="18" t="s">
         <v>35</v>
       </c>
@@ -1102,162 +1159,173 @@
         <v>15</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D36" s="19"/>
       <c r="E36" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>55</v>
+        <v>64</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="4:8" ht="45" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" ht="45" x14ac:dyDescent="0.25">
       <c r="D37" s="19"/>
       <c r="E37" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D38" s="19"/>
       <c r="E38" s="10" t="s">
         <v>36</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D39" s="19"/>
       <c r="E39" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D40" s="19"/>
       <c r="E40" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D41" s="19"/>
       <c r="E41" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D42" s="19"/>
       <c r="E42" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D43" s="19"/>
       <c r="E43" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D44" s="19"/>
       <c r="E44" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F44" s="12"/>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G44" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D45" s="19"/>
       <c r="E45" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D46" s="19"/>
       <c r="E46" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D47" s="19"/>
       <c r="E47" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="4:8" ht="45" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D48" s="19"/>
       <c r="E48" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H48" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="4:7" x14ac:dyDescent="0.25">
@@ -1265,19 +1333,23 @@
       <c r="E49" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F49" s="12"/>
-      <c r="G49" s="2"/>
+      <c r="F49" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="50" spans="4:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D50" s="20"/>
       <c r="E50" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1290,12 +1362,15 @@
     <mergeCell ref="D27:D29"/>
     <mergeCell ref="D30:D34"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5">
       <formula1>$B$4:$B$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F22 F24 F26:F36 F38:F42 F44:F47 F49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F49 F24 F17:F22 F26:F35 F44:F47 F7:F15 F38:F42">
       <formula1>$B$4:$B$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G50">
+      <formula1>$I$44:$I$46</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
